--- a/Monopy.PreceRateWage/Monopy.PreceRateWage.WinForm/Excel/模板一厂——模具——大件车间月报.xlsx
+++ b/Monopy.PreceRateWage/Monopy.PreceRateWage.WinForm/Excel/模板一厂——模具——大件车间月报.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -63,21 +63,16 @@
   </si>
   <si>
     <t>生产累计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当日拨出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-  </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,13 +97,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -145,7 +133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -194,15 +182,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -221,30 +200,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -582,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -593,112 +569,96 @@
     <col min="8" max="8" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+    <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3" t="s">
+    <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="3" t="s">
+      <c r="J3" s="4"/>
+      <c r="K3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="5"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
+  <mergeCells count="9">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
